--- a/PhaseResults/m4_PhaseTwo.xlsx
+++ b/PhaseResults/m4_PhaseTwo.xlsx
@@ -444,34 +444,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0110113655193987</v>
+        <v>-122.2643182618285</v>
       </c>
       <c r="C2">
-        <v>88.67884800599438</v>
+        <v>0.009225777272209388</v>
       </c>
       <c r="D2">
-        <v>15.8777834049293</v>
+        <v>175.6868714628164</v>
       </c>
       <c r="E2">
-        <v>54.59666451166795</v>
+        <v>-75.39319414180932</v>
       </c>
       <c r="F2">
-        <v>1.169646035052734</v>
+        <v>-0.1086439186697188</v>
       </c>
       <c r="G2">
-        <v>-0.7293141240294037</v>
+        <v>1.176633979768706</v>
       </c>
       <c r="H2">
-        <v>-1.254039262335727</v>
+        <v>-0.6351031829754936</v>
       </c>
       <c r="I2">
-        <v>0.06426825262205149</v>
+        <v>-1.018448415777272</v>
       </c>
       <c r="J2">
-        <v>4.353671128516709</v>
+        <v>0.1425669078251133</v>
       </c>
       <c r="K2">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.07271518835668042</v>
+        <v>122.2647551580655</v>
       </c>
       <c r="C3">
-        <v>137.9889131873833</v>
+        <v>-0.7481090277627817</v>
       </c>
       <c r="D3">
-        <v>-89.37694980518009</v>
+        <v>-72.88387806833964</v>
       </c>
       <c r="E3">
-        <v>17.10495271767599</v>
+        <v>1.658766240315058</v>
       </c>
       <c r="F3">
-        <v>0.8541138175809784</v>
+        <v>-0.7421831883863843</v>
       </c>
       <c r="G3">
-        <v>-0.835017570494254</v>
+        <v>0.8064750652142534</v>
       </c>
       <c r="H3">
-        <v>-1.330268270114121</v>
+        <v>-1.022537334574681</v>
       </c>
       <c r="I3">
-        <v>0.1341265273218948</v>
+        <v>0.7168447080867923</v>
       </c>
       <c r="J3">
-        <v>4.353687586440156</v>
+        <v>1.323201695305478</v>
       </c>
       <c r="K3">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.00354123234125952</v>
+        <v>98.05217560865111</v>
       </c>
       <c r="C4">
-        <v>91.88298791961712</v>
+        <v>0.01247310048467842</v>
       </c>
       <c r="D4">
-        <v>37.0179920869647</v>
+        <v>-13.10794790862881</v>
       </c>
       <c r="E4">
-        <v>-18.5171160440391</v>
+        <v>-78.83413593596904</v>
       </c>
       <c r="F4">
-        <v>1.251763445461336</v>
+        <v>-0.5805247880294939</v>
       </c>
       <c r="G4">
-        <v>-0.5249761774116319</v>
+        <v>1.220271398492892</v>
       </c>
       <c r="H4">
-        <v>0.1238272365913513</v>
+        <v>-1.546547428268539</v>
       </c>
       <c r="I4">
-        <v>-1.702333435821776</v>
+        <v>-0.1153274388387686</v>
       </c>
       <c r="J4">
-        <v>4.353738355999397</v>
+        <v>4.325630469470958</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1962777371140041</v>
+        <v>-22.34029350823144</v>
       </c>
       <c r="C5">
-        <v>-0.3331777420092152</v>
+        <v>5.61849253459703</v>
       </c>
       <c r="D5">
-        <v>90.22206676521711</v>
+        <v>-31.10791105896249</v>
       </c>
       <c r="E5">
-        <v>5.719869944820275</v>
+        <v>85.74137512786443</v>
       </c>
       <c r="F5">
-        <v>1.31266767964183</v>
+        <v>0.1111413625670954</v>
       </c>
       <c r="G5">
-        <v>1.236777184162822</v>
+        <v>0.3655733270794324</v>
       </c>
       <c r="H5">
-        <v>-0.3787672274766842</v>
+        <v>-1.395313827502261</v>
       </c>
       <c r="I5">
-        <v>0.479740927315822</v>
+        <v>-0.7937678359951541</v>
       </c>
       <c r="J5">
-        <v>4.353744567212836</v>
+        <v>4.353810884320795</v>
       </c>
       <c r="K5">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>135.3175294164687</v>
+        <v>0.2543822713262949</v>
       </c>
       <c r="C6">
-        <v>0.2973059526596366</v>
+        <v>103.4255275189793</v>
       </c>
       <c r="D6">
-        <v>0.8872072284969387</v>
+        <v>-38.11901382348826</v>
       </c>
       <c r="E6">
-        <v>-75.64565831283325</v>
+        <v>169.5871333552225</v>
       </c>
       <c r="F6">
-        <v>-0.9052954403654152</v>
+        <v>0.6243913109180612</v>
       </c>
       <c r="G6">
-        <v>0.5999679209566762</v>
+        <v>-0.4169457174131594</v>
       </c>
       <c r="H6">
-        <v>0.4847498305081701</v>
+        <v>-1.931806468667927</v>
       </c>
       <c r="I6">
-        <v>-1.252822519632435</v>
+        <v>0.04232216543467793</v>
       </c>
       <c r="J6">
-        <v>4.353751134013194</v>
+        <v>4.353843224505368</v>
       </c>
       <c r="K6">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.944600411641876</v>
+        <v>-0.2347233003076391</v>
       </c>
       <c r="C7">
-        <v>19.30513150069699</v>
+        <v>1.150887258488819</v>
       </c>
       <c r="D7">
-        <v>0.2701405293999429</v>
+        <v>69.88372888479344</v>
       </c>
       <c r="E7">
-        <v>75.1506615087672</v>
+        <v>18.04277736425675</v>
       </c>
       <c r="F7">
-        <v>-0.1864140491869997</v>
+        <v>0.8310548737116523</v>
       </c>
       <c r="G7">
-        <v>0.1293033859239578</v>
+        <v>0.6686596903341426</v>
       </c>
       <c r="H7">
-        <v>0.6683887024907382</v>
+        <v>-0.8490861642704297</v>
       </c>
       <c r="I7">
-        <v>-0.6519621514639047</v>
+        <v>-0.1411589974405458</v>
       </c>
       <c r="J7">
-        <v>4.353786963616059</v>
+        <v>4.353848088611517</v>
       </c>
       <c r="K7">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>195.3714040958406</v>
+        <v>18.67980625887702</v>
       </c>
       <c r="C8">
-        <v>49.5360312615021</v>
+        <v>-39.16542556137834</v>
       </c>
       <c r="D8">
-        <v>-193.5454725102868</v>
+        <v>4.709596491919418</v>
       </c>
       <c r="E8">
-        <v>11.79806211410614</v>
+        <v>88.52258663716773</v>
       </c>
       <c r="F8">
-        <v>-0.9866261359563795</v>
+        <v>-0.2968747967004861</v>
       </c>
       <c r="G8">
-        <v>-0.3221366041421621</v>
+        <v>-1.109673891164824</v>
       </c>
       <c r="H8">
-        <v>-1.184635348473353</v>
+        <v>0.3537453697636104</v>
       </c>
       <c r="I8">
-        <v>0.2567515270411507</v>
+        <v>-0.7448613241098814</v>
       </c>
       <c r="J8">
-        <v>4.353883171367954</v>
+        <v>4.353851353439868</v>
       </c>
       <c r="K8">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>66.99346464828673</v>
+        <v>2.565862671926864e-05</v>
       </c>
       <c r="C9">
-        <v>189.3139075494531</v>
+        <v>14.78886010219894</v>
       </c>
       <c r="D9">
-        <v>-235.1030161970554</v>
+        <v>3.20470805280735</v>
       </c>
       <c r="E9">
-        <v>117.1595276553207</v>
+        <v>69.35437697506492</v>
       </c>
       <c r="F9">
-        <v>0.1129905057134009</v>
+        <v>1.360027162277137</v>
       </c>
       <c r="G9">
-        <v>-1.966367072043614</v>
+        <v>-1.87099314763774</v>
       </c>
       <c r="H9">
-        <v>-1.86715725352611</v>
+        <v>0.399267086134492</v>
       </c>
       <c r="I9">
-        <v>-0.3872026621716709</v>
+        <v>-0.5756743636112773</v>
       </c>
       <c r="J9">
-        <v>4.353994483354072</v>
+        <v>4.353855869305775</v>
       </c>
       <c r="K9">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>240.1436932083696</v>
+        <v>25.57044826613475</v>
       </c>
       <c r="C10">
-        <v>-0.0008763036361581102</v>
+        <v>-68.35584149473007</v>
       </c>
       <c r="D10">
-        <v>149.3088572147156</v>
+        <v>93.66747336377459</v>
       </c>
       <c r="E10">
-        <v>0.350240656446589</v>
+        <v>53.57799349346095</v>
       </c>
       <c r="F10">
-        <v>-1.573590214048555</v>
+        <v>0.2018119231148199</v>
       </c>
       <c r="G10">
-        <v>1.49073436799649</v>
+        <v>-1.97784085856481</v>
       </c>
       <c r="H10">
-        <v>-0.01534274061004504</v>
+        <v>-0.2097226885318191</v>
       </c>
       <c r="I10">
-        <v>0.7622284463182605</v>
+        <v>-1.071182517038912</v>
       </c>
       <c r="J10">
-        <v>4.354045058780486</v>
+        <v>4.353860038281866</v>
       </c>
       <c r="K10">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1.970572188114158</v>
+        <v>-1.422733953754398</v>
       </c>
       <c r="C11">
-        <v>14.18586009229937</v>
+        <v>3.815606483518931</v>
       </c>
       <c r="D11">
-        <v>133.64178461226</v>
+        <v>36.30902118594653</v>
       </c>
       <c r="E11">
-        <v>116.5406271262087</v>
+        <v>54.76365923836033</v>
       </c>
       <c r="F11">
-        <v>0.5103790141098044</v>
+        <v>0.5775071228806117</v>
       </c>
       <c r="G11">
-        <v>0.3525258375120801</v>
+        <v>0.5068218019970399</v>
       </c>
       <c r="H11">
-        <v>-0.1279936759716727</v>
+        <v>-1.303565996213299</v>
       </c>
       <c r="I11">
-        <v>-1.7632398408742</v>
+        <v>-0.4828210101950317</v>
       </c>
       <c r="J11">
-        <v>4.354047136466605</v>
+        <v>4.353869715671738</v>
       </c>
       <c r="K11">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.0006796461874190693</v>
+        <v>12.84564418174819</v>
       </c>
       <c r="C12">
-        <v>13.20996011905698</v>
+        <v>42.70810455375596</v>
       </c>
       <c r="D12">
-        <v>35.09923011025599</v>
+        <v>2.122265605413218</v>
       </c>
       <c r="E12">
-        <v>293.4476033042356</v>
+        <v>79.37042149642249</v>
       </c>
       <c r="F12">
-        <v>1.697817106570318</v>
+        <v>-0.2321505825354646</v>
       </c>
       <c r="G12">
-        <v>-0.2714885710601325</v>
+        <v>-0.570103861740999</v>
       </c>
       <c r="H12">
-        <v>0.07615303969188991</v>
+        <v>0.4600967293565934</v>
       </c>
       <c r="I12">
-        <v>-1.47367850995513</v>
+        <v>-1.639113654501418</v>
       </c>
       <c r="J12">
-        <v>4.354171753891869</v>
+        <v>4.353900769563737</v>
       </c>
       <c r="K12">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23.71388405557948</v>
+        <v>75.57992736315779</v>
       </c>
       <c r="C13">
-        <v>45.61443794615744</v>
+        <v>99.50622180192804</v>
       </c>
       <c r="D13">
-        <v>-34.12200972406686</v>
+        <v>-96.65793093954412</v>
       </c>
       <c r="E13">
-        <v>44.17163785833594</v>
+        <v>24.99675385430385</v>
       </c>
       <c r="F13">
-        <v>0.288537142158857</v>
+        <v>-0.2769232882589809</v>
       </c>
       <c r="G13">
-        <v>-0.1888115580793215</v>
+        <v>-0.9349176513461808</v>
       </c>
       <c r="H13">
-        <v>0.1956073232816409</v>
+        <v>-1.207110852948135</v>
       </c>
       <c r="I13">
-        <v>-1.01714007460956</v>
+        <v>0.193971939386838</v>
       </c>
       <c r="J13">
-        <v>4.354231060773191</v>
+        <v>4.353917594197952</v>
       </c>
       <c r="K13">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>29.39883106221345</v>
+        <v>35.2654874804302</v>
       </c>
       <c r="C14">
-        <v>0.0006316096952123926</v>
+        <v>169.6021192801752</v>
       </c>
       <c r="D14">
-        <v>-15.6264883173899</v>
+        <v>8.477235066169213</v>
       </c>
       <c r="E14">
-        <v>468.7593799915833</v>
+        <v>-7.367999322656168</v>
       </c>
       <c r="F14">
-        <v>0.02181940531704907</v>
+        <v>-0.1425357083319954</v>
       </c>
       <c r="G14">
-        <v>1.761006485038629</v>
+        <v>-1.457904114477685</v>
       </c>
       <c r="H14">
-        <v>-0.197605447401505</v>
+        <v>0.6108588652807789</v>
       </c>
       <c r="I14">
-        <v>-1.616888218968226</v>
+        <v>0.6174199413119084</v>
       </c>
       <c r="J14">
-        <v>4.354737078248149</v>
+        <v>4.353931916073556</v>
       </c>
       <c r="K14">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.785620465031778</v>
+        <v>-40.06153393764721</v>
       </c>
       <c r="C15">
-        <v>2.537585338460686</v>
+        <v>24.01187875884207</v>
       </c>
       <c r="D15">
-        <v>-87.78656441134066</v>
+        <v>116.0257953670772</v>
       </c>
       <c r="E15">
-        <v>121.8196837330697</v>
+        <v>149.5139368066326</v>
       </c>
       <c r="F15">
-        <v>-1.609225220116512</v>
+        <v>-1.976537377052907</v>
       </c>
       <c r="G15">
-        <v>0.4350856938949383</v>
+        <v>-0.6814404243133776</v>
       </c>
       <c r="H15">
-        <v>-1.049386598045523</v>
+        <v>0.09766748903214451</v>
       </c>
       <c r="I15">
-        <v>-0.6852702862475122</v>
+        <v>-0.1947027644456469</v>
       </c>
       <c r="J15">
-        <v>4.355257994593998</v>
+        <v>4.353937912426574</v>
       </c>
       <c r="K15">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.7910919035567063</v>
+        <v>118.8566310237852</v>
       </c>
       <c r="C16">
-        <v>50.41206673697857</v>
+        <v>384.9131034325741</v>
       </c>
       <c r="D16">
-        <v>-94.26830818621607</v>
+        <v>17.40569882423881</v>
       </c>
       <c r="E16">
-        <v>6.401594338606838</v>
+        <v>-402.9847387035821</v>
       </c>
       <c r="F16">
-        <v>0.7933170358247228</v>
+        <v>-0.5307320830933719</v>
       </c>
       <c r="G16">
-        <v>-1.486439936742265</v>
+        <v>-1.417852201440257</v>
       </c>
       <c r="H16">
-        <v>0.1079615911618466</v>
+        <v>0.2162672493667328</v>
       </c>
       <c r="I16">
-        <v>0.5572170276550641</v>
+        <v>-1.306742012696025</v>
       </c>
       <c r="J16">
-        <v>4.35527313958724</v>
+        <v>4.353988233153366</v>
       </c>
       <c r="K16">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-2.588492742287783</v>
+        <v>-0.3630679222453754</v>
       </c>
       <c r="C17">
-        <v>59.4955417929889</v>
+        <v>1.444344719566855</v>
       </c>
       <c r="D17">
-        <v>-0.1206105271962045</v>
+        <v>47.84348870804013</v>
       </c>
       <c r="E17">
-        <v>0.8991852839758899</v>
+        <v>20.08156574257011</v>
       </c>
       <c r="F17">
-        <v>0.469548705034859</v>
+        <v>0.8703964381228366</v>
       </c>
       <c r="G17">
-        <v>-0.8691388670716602</v>
+        <v>0.7040910487935337</v>
       </c>
       <c r="H17">
-        <v>1.088230191009552</v>
+        <v>-0.3947333488908169</v>
       </c>
       <c r="I17">
-        <v>0.8422309730537911</v>
+        <v>-0.8932278747492548</v>
       </c>
       <c r="J17">
-        <v>4.355294202799492</v>
+        <v>4.354054096912488</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.425927177164892</v>
+        <v>-72.87910775315611</v>
       </c>
       <c r="C18">
-        <v>-45.60704779270113</v>
+        <v>-268.3636808995624</v>
       </c>
       <c r="D18">
-        <v>84.2291156520397</v>
+        <v>589.2800130227382</v>
       </c>
       <c r="E18">
-        <v>0.1214625541539565</v>
+        <v>238.806517101659</v>
       </c>
       <c r="F18">
-        <v>0.150877507450629</v>
+        <v>-0.7903394188018507</v>
       </c>
       <c r="G18">
-        <v>-0.105701273238999</v>
+        <v>-0.04376120876535738</v>
       </c>
       <c r="H18">
-        <v>-0.4725403536080177</v>
+        <v>0.01716973390931109</v>
       </c>
       <c r="I18">
-        <v>0.8087446480601739</v>
+        <v>-0.3427511922133943</v>
       </c>
       <c r="J18">
-        <v>4.355354434053086</v>
+        <v>4.354064572751895</v>
       </c>
       <c r="K18">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>22.42637501791641</v>
+        <v>-142.3711002038325</v>
       </c>
       <c r="C19">
-        <v>-0.8448602280351153</v>
+        <v>-68.74059180855021</v>
       </c>
       <c r="D19">
-        <v>1.015474669054758</v>
+        <v>205.5142082240427</v>
       </c>
       <c r="E19">
-        <v>56.03970426068496</v>
+        <v>8.51625620461332</v>
       </c>
       <c r="F19">
-        <v>-0.4812570140536239</v>
+        <v>-1.016343837028351</v>
       </c>
       <c r="G19">
-        <v>1.067095122165743</v>
+        <v>-0.02292496672283217</v>
       </c>
       <c r="H19">
-        <v>1.043915563622367</v>
+        <v>-0.7551312358886744</v>
       </c>
       <c r="I19">
-        <v>-1.080361874907176</v>
+        <v>0.255535537981201</v>
       </c>
       <c r="J19">
-        <v>4.355381844038249</v>
+        <v>4.354210797271428</v>
       </c>
       <c r="K19">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>71.97636123337521</v>
+        <v>91.69643404025862</v>
       </c>
       <c r="C20">
-        <v>29.64087160286763</v>
+        <v>-0.5686553812968771</v>
       </c>
       <c r="D20">
-        <v>-20.46973884458808</v>
+        <v>1.817496675291703</v>
       </c>
       <c r="E20">
-        <v>-51.70223659104408</v>
+        <v>558.5564966879476</v>
       </c>
       <c r="F20">
-        <v>-1.011853556783751</v>
+        <v>-1.469611940034627</v>
       </c>
       <c r="G20">
-        <v>0.3190019576389447</v>
+        <v>0.9017877235241905</v>
       </c>
       <c r="H20">
-        <v>-1.661817930813811</v>
+        <v>0.7566475795356018</v>
       </c>
       <c r="I20">
-        <v>0.2322957415359288</v>
+        <v>-0.01278018778117751</v>
       </c>
       <c r="J20">
-        <v>4.355387922053215</v>
+        <v>4.354218165535372</v>
       </c>
       <c r="K20">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>727.3857822824457</v>
+        <v>-20.60755986554534</v>
       </c>
       <c r="C21">
-        <v>-761.9525424114067</v>
+        <v>1.089226581658092</v>
       </c>
       <c r="D21">
-        <v>1049.951739931894</v>
+        <v>75.00302793421463</v>
       </c>
       <c r="E21">
-        <v>-1071.776902471251</v>
+        <v>-0.406779944259445</v>
       </c>
       <c r="F21">
-        <v>-0.288105633456808</v>
+        <v>-0.352054911594391</v>
       </c>
       <c r="G21">
-        <v>-0.2132322152242963</v>
+        <v>0.7815408847023604</v>
       </c>
       <c r="H21">
-        <v>-0.963459323278141</v>
+        <v>-0.4500861918092851</v>
       </c>
       <c r="I21">
-        <v>-0.9798068191722202</v>
+        <v>0.8988809271980212</v>
       </c>
       <c r="J21">
-        <v>4.355396835131941</v>
+        <v>4.3552525155391</v>
       </c>
       <c r="K21">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.001105601116589715</v>
+        <v>6.489415692342842e-06</v>
       </c>
       <c r="C22">
-        <v>0.08496053404602444</v>
+        <v>0.7035650081437954</v>
       </c>
       <c r="D22">
-        <v>56.26397465270615</v>
+        <v>1.195271404766907</v>
       </c>
       <c r="E22">
-        <v>107.6591756243757</v>
+        <v>62.69770586818203</v>
       </c>
       <c r="F22">
-        <v>1.637584467703295</v>
+        <v>1.653471968311442</v>
       </c>
       <c r="G22">
-        <v>1.029137961998816</v>
+        <v>-1.727242461161577</v>
       </c>
       <c r="H22">
-        <v>-0.4343789456386373</v>
+        <v>0.5345901828952315</v>
       </c>
       <c r="I22">
-        <v>0.0205339007286196</v>
+        <v>-0.6299647063015685</v>
       </c>
       <c r="J22">
-        <v>4.355462206108697</v>
+        <v>4.355350724842692</v>
       </c>
       <c r="K22">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.518899114065169</v>
+        <v>-1.836450284879223</v>
       </c>
       <c r="C23">
-        <v>-13.45711472089888</v>
+        <v>62.8767700094226</v>
       </c>
       <c r="D23">
-        <v>0.3680224287676104</v>
+        <v>0.1799469150252427</v>
       </c>
       <c r="E23">
-        <v>78.3875378456373</v>
+        <v>-0.0001415292567473507</v>
       </c>
       <c r="F23">
-        <v>-0.436847421856231</v>
+        <v>-0.6433970046019519</v>
       </c>
       <c r="G23">
-        <v>-1.13793301171248</v>
+        <v>-0.7616181374878477</v>
       </c>
       <c r="H23">
-        <v>0.7080605255259758</v>
+        <v>0.8604019339048006</v>
       </c>
       <c r="I23">
-        <v>-0.8565701997013442</v>
+        <v>1.848922505396178</v>
       </c>
       <c r="J23">
-        <v>4.355488414150794</v>
+        <v>4.355362752407631</v>
       </c>
       <c r="K23">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0003646905057201321</v>
+        <v>0.3725194491593553</v>
       </c>
       <c r="C24">
-        <v>12.13726380355616</v>
+        <v>8.517556335889296</v>
       </c>
       <c r="D24">
-        <v>71.52518204529395</v>
+        <v>58.72967226374491</v>
       </c>
       <c r="E24">
-        <v>0.7544013866571768</v>
+        <v>-0.0290272403757472</v>
       </c>
       <c r="F24">
-        <v>1.551915263502593</v>
+        <v>0.7927274845000563</v>
       </c>
       <c r="G24">
-        <v>-1.834066965209625</v>
+        <v>-1.324838884042288</v>
       </c>
       <c r="H24">
-        <v>-0.7998023453059964</v>
+        <v>-0.7077263909663822</v>
       </c>
       <c r="I24">
-        <v>0.5735781279972674</v>
+        <v>1.073934080018848</v>
       </c>
       <c r="J24">
-        <v>4.355593486877636</v>
+        <v>4.355367582331654</v>
       </c>
       <c r="K24">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-1.239713445673617</v>
+        <v>-2.22303467957997</v>
       </c>
       <c r="C25">
-        <v>0.4577929329906965</v>
+        <v>0.002041387304143306</v>
       </c>
       <c r="D25">
-        <v>80.41892992506186</v>
+        <v>2.123366612837303</v>
       </c>
       <c r="E25">
-        <v>0.0003044518448996039</v>
+        <v>72.80241291235619</v>
       </c>
       <c r="F25">
-        <v>-1.132228958921107</v>
+        <v>-0.8754408538818552</v>
       </c>
       <c r="G25">
-        <v>0.6532790132016868</v>
+        <v>1.360473970173114</v>
       </c>
       <c r="H25">
-        <v>-0.8833782319850589</v>
+        <v>0.4111161267366548</v>
       </c>
       <c r="I25">
-        <v>1.51819162970643</v>
+        <v>-0.7137636663214746</v>
       </c>
       <c r="J25">
-        <v>4.355618623899503</v>
+        <v>4.355515010836472</v>
       </c>
       <c r="K25">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-41.66934370866625</v>
+        <v>-14.04075639617688</v>
       </c>
       <c r="C26">
-        <v>1.244017351511665</v>
+        <v>-4.785324361805287e-05</v>
       </c>
       <c r="D26">
-        <v>82.47269541168978</v>
+        <v>8.052089433750204</v>
       </c>
       <c r="E26">
-        <v>0.003790456977247725</v>
+        <v>58.41453540999616</v>
       </c>
       <c r="F26">
-        <v>-0.007902388422367679</v>
+        <v>0.3890331918063996</v>
       </c>
       <c r="G26">
-        <v>0.441294717501918</v>
+        <v>1.980658151673694</v>
       </c>
       <c r="H26">
-        <v>-0.8516556021995789</v>
+        <v>0.4982875334585</v>
       </c>
       <c r="I26">
-        <v>1.325677203267953</v>
+        <v>-0.993170253252289</v>
       </c>
       <c r="J26">
-        <v>4.355742275103555</v>
+        <v>4.355557487915684</v>
       </c>
       <c r="K26">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-214.089458979903</v>
+        <v>-2.402943353734941</v>
       </c>
       <c r="C27">
-        <v>3.740248289542421</v>
+        <v>44.53439659643279</v>
       </c>
       <c r="D27">
-        <v>-18.1292882683958</v>
+        <v>-0.01328063671396947</v>
       </c>
       <c r="E27">
-        <v>324.5981489585004</v>
+        <v>2.399261227876057</v>
       </c>
       <c r="F27">
-        <v>-1.716722520419483</v>
+        <v>0.7065799905432026</v>
       </c>
       <c r="G27">
-        <v>0.4887892787041928</v>
+        <v>-0.4627780455198596</v>
       </c>
       <c r="H27">
-        <v>0.2262681752824842</v>
+        <v>1.301177413002297</v>
       </c>
       <c r="I27">
-        <v>-1.562079222581749</v>
+        <v>0.7558072736687058</v>
       </c>
       <c r="J27">
-        <v>4.355773393468514</v>
+        <v>4.355632373509996</v>
       </c>
       <c r="K27">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,31 +1354,31 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.6563017265328368</v>
+        <v>11.40322078796756</v>
       </c>
       <c r="C28">
-        <v>138.8942594961616</v>
+        <v>85.69707983056199</v>
       </c>
       <c r="D28">
-        <v>-65.08742347358688</v>
+        <v>0.01830540432368209</v>
       </c>
       <c r="E28">
-        <v>0.0467367314343327</v>
+        <v>1.320631551916791</v>
       </c>
       <c r="F28">
-        <v>0.406700093666466</v>
+        <v>-0.6163799349004144</v>
       </c>
       <c r="G28">
-        <v>-1.087369998567682</v>
+        <v>-1.052999246467663</v>
       </c>
       <c r="H28">
-        <v>-1.459172246070459</v>
+        <v>1.125932470884845</v>
       </c>
       <c r="I28">
-        <v>0.9963652243712797</v>
+        <v>0.3777713158407852</v>
       </c>
       <c r="J28">
-        <v>4.355781979544352</v>
+        <v>4.3558803551823</v>
       </c>
       <c r="K28">
         <v>25</v>
@@ -1389,34 +1389,34 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>149.4998904836498</v>
+        <v>7.216240628207058</v>
       </c>
       <c r="C29">
-        <v>-374.1596446775138</v>
+        <v>29.34152651597551</v>
       </c>
       <c r="D29">
-        <v>-98.17399466826174</v>
+        <v>-66.82685576126937</v>
       </c>
       <c r="E29">
-        <v>0.007242216782507328</v>
+        <v>-0.0004250976334309074</v>
       </c>
       <c r="F29">
-        <v>-0.534900382859451</v>
+        <v>0.4392964514170909</v>
       </c>
       <c r="G29">
-        <v>-0.002622371555071723</v>
+        <v>-1.223573869086662</v>
       </c>
       <c r="H29">
-        <v>-0.2755605453832166</v>
+        <v>0.1341108175978332</v>
       </c>
       <c r="I29">
-        <v>1.293470144789489</v>
+        <v>1.672508139521793</v>
       </c>
       <c r="J29">
-        <v>4.355817670641727</v>
+        <v>4.355891179533458</v>
       </c>
       <c r="K29">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-25.68638794487026</v>
+        <v>-8.897878042279366</v>
       </c>
       <c r="C30">
-        <v>113.1869027117366</v>
+        <v>-47.24110516751909</v>
       </c>
       <c r="D30">
-        <v>0.06965338717951458</v>
+        <v>106.1576875399289</v>
       </c>
       <c r="E30">
-        <v>1.699882664732462</v>
+        <v>0.01427658454268679</v>
       </c>
       <c r="F30">
-        <v>-1.547297283488916</v>
+        <v>-0.9520170797448562</v>
       </c>
       <c r="G30">
-        <v>-1.064626356988227</v>
+        <v>-0.1321553845635137</v>
       </c>
       <c r="H30">
-        <v>0.9562037072052925</v>
+        <v>-0.7709853727808236</v>
       </c>
       <c r="I30">
-        <v>0.1995933368626344</v>
+        <v>1.198129965715523</v>
       </c>
       <c r="J30">
-        <v>4.355856243943668</v>
+        <v>4.355920969272503</v>
       </c>
       <c r="K30">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-9.292539329910753</v>
+        <v>8.958884644033458e-05</v>
       </c>
       <c r="C31">
-        <v>0.1259815324005741</v>
+        <v>7.665168289209479</v>
       </c>
       <c r="D31">
-        <v>43.77087090271436</v>
+        <v>94.44122514675784</v>
       </c>
       <c r="E31">
-        <v>64.72045052840741</v>
+        <v>-18.8638410719141</v>
       </c>
       <c r="F31">
-        <v>-0.9513530763682276</v>
+        <v>1.988748131496957</v>
       </c>
       <c r="G31">
-        <v>0.8813773642541047</v>
+        <v>0.228203165057081</v>
       </c>
       <c r="H31">
-        <v>-0.8294006594090491</v>
+        <v>-0.667910148196404</v>
       </c>
       <c r="I31">
-        <v>-1.283969765304655</v>
+        <v>-0.2084378208172617</v>
       </c>
       <c r="J31">
-        <v>4.355878322423722</v>
+        <v>4.356052244956992</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2175.305254403112</v>
+        <v>-2.669793385612086</v>
       </c>
       <c r="C32">
-        <v>-2157.682635931988</v>
+        <v>-162.2385738262297</v>
       </c>
       <c r="D32">
-        <v>-856.6743141534926</v>
+        <v>0.3479024969882327</v>
       </c>
       <c r="E32">
-        <v>2070.70623419428</v>
+        <v>249.5531344233583</v>
       </c>
       <c r="F32">
-        <v>-0.5994639414235761</v>
+        <v>0.3064371596548328</v>
       </c>
       <c r="G32">
-        <v>-0.941244220285268</v>
+        <v>-1.545313327719708</v>
       </c>
       <c r="H32">
-        <v>-0.329897515227467</v>
+        <v>0.7718458235970154</v>
       </c>
       <c r="I32">
-        <v>-1.927533665657455</v>
+        <v>-1.358943865009898</v>
       </c>
       <c r="J32">
-        <v>4.355914085406027</v>
+        <v>4.356076159423749</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.721544453196409</v>
+        <v>-10.05510245173335</v>
       </c>
       <c r="C33">
-        <v>87.51040985404811</v>
+        <v>0.7240759438570701</v>
       </c>
       <c r="D33">
-        <v>0.0007314301388544976</v>
+        <v>-5.147311852458037</v>
       </c>
       <c r="E33">
-        <v>-33.19517939445073</v>
+        <v>54.06564212861291</v>
       </c>
       <c r="F33">
-        <v>0.3824656567745044</v>
+        <v>-1.599454452774869</v>
       </c>
       <c r="G33">
-        <v>-0.7946797788827988</v>
+        <v>0.6383923301483945</v>
       </c>
       <c r="H33">
-        <v>1.618390209362505</v>
+        <v>-0.5119627928296961</v>
       </c>
       <c r="I33">
-        <v>-0.04700215767105953</v>
+        <v>-0.4323311508306347</v>
       </c>
       <c r="J33">
-        <v>4.355917816840858</v>
+        <v>4.356227649236422</v>
       </c>
       <c r="K33">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.3671868277272663</v>
+        <v>114.5859383749533</v>
       </c>
       <c r="C34">
-        <v>15.78439917755394</v>
+        <v>47.2249157230729</v>
       </c>
       <c r="D34">
-        <v>0.003262449714743457</v>
+        <v>0.03665650618810942</v>
       </c>
       <c r="E34">
-        <v>119.5293130378274</v>
+        <v>0.0270544984408433</v>
       </c>
       <c r="F34">
-        <v>0.6592111550861612</v>
+        <v>-1.259789261149566</v>
       </c>
       <c r="G34">
-        <v>-0.4604183291574455</v>
+        <v>-1.57571239099017</v>
       </c>
       <c r="H34">
-        <v>1.286331531758838</v>
+        <v>1.046471681432618</v>
       </c>
       <c r="I34">
-        <v>-1.335172266287271</v>
+        <v>0.8533136357541333</v>
       </c>
       <c r="J34">
-        <v>4.356023942571822</v>
+        <v>4.356462523449128</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-11.16152293618658</v>
+        <v>0.001621358076817679</v>
       </c>
       <c r="C35">
-        <v>-76.53936598896263</v>
+        <v>0.06338895149860865</v>
       </c>
       <c r="D35">
-        <v>223.3886321189523</v>
+        <v>38.49933318938733</v>
       </c>
       <c r="E35">
-        <v>2.990033253322895</v>
+        <v>137.5100696915869</v>
       </c>
       <c r="F35">
-        <v>0.2570775044183806</v>
+        <v>1.239201702530107</v>
       </c>
       <c r="G35">
-        <v>0.02075861157037595</v>
+        <v>0.9686142669678737</v>
       </c>
       <c r="H35">
-        <v>-1.742524651564273</v>
+        <v>-1.079721648877715</v>
       </c>
       <c r="I35">
-        <v>0.5175886460854091</v>
+        <v>-1.487512478478686</v>
       </c>
       <c r="J35">
-        <v>4.356065536835686</v>
+        <v>4.356518429736566</v>
       </c>
       <c r="K35">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-182.2942440647439</v>
+        <v>3.541199703054079</v>
       </c>
       <c r="C36">
-        <v>262.3529444465403</v>
+        <v>-0.3034532872090256</v>
       </c>
       <c r="D36">
-        <v>205.6148190386687</v>
+        <v>0.07824309115314122</v>
       </c>
       <c r="E36">
-        <v>-342.6196090791328</v>
+        <v>186.6414570062144</v>
       </c>
       <c r="F36">
-        <v>-0.1172056597561388</v>
+        <v>-1.162126038694441</v>
       </c>
       <c r="G36">
-        <v>-0.6361459025056013</v>
+        <v>0.4742440092732121</v>
       </c>
       <c r="H36">
-        <v>-1.201509565114863</v>
+        <v>0.9837777542705863</v>
       </c>
       <c r="I36">
-        <v>-1.127811707240009</v>
+        <v>-1.451611536413955</v>
       </c>
       <c r="J36">
-        <v>4.356271012726395</v>
+        <v>4.356699888965444</v>
       </c>
       <c r="K36">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.785457693558661</v>
+        <v>0.0106634855266898</v>
       </c>
       <c r="C37">
-        <v>-16.39650570062511</v>
+        <v>134.8927861197464</v>
       </c>
       <c r="D37">
-        <v>128.4794270833883</v>
+        <v>-0.004662027678440832</v>
       </c>
       <c r="E37">
-        <v>0.009448745839011466</v>
+        <v>19.04816445373724</v>
       </c>
       <c r="F37">
-        <v>0.2354624501774061</v>
+        <v>1.62904330325373</v>
       </c>
       <c r="G37">
-        <v>-0.6727720072715104</v>
+        <v>-1.382368174785678</v>
       </c>
       <c r="H37">
-        <v>-1.0213160077187</v>
+        <v>1.746721440724365</v>
       </c>
       <c r="I37">
-        <v>1.270747201400157</v>
+        <v>-1.374326230180654</v>
       </c>
       <c r="J37">
-        <v>4.356337784743116</v>
+        <v>4.356747146803849</v>
       </c>
       <c r="K37">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>37.5393947514078</v>
+        <v>-0.1665059993650514</v>
       </c>
       <c r="C38">
-        <v>-102.9450617498339</v>
+        <v>34.35310617241286</v>
       </c>
       <c r="D38">
-        <v>306.3142186546535</v>
+        <v>207.4968847497013</v>
       </c>
       <c r="E38">
-        <v>0.08451983428659222</v>
+        <v>0.05506909606657483</v>
       </c>
       <c r="F38">
-        <v>-0.7434520682826296</v>
+        <v>0.5117016405887211</v>
       </c>
       <c r="G38">
-        <v>-1.935761490155826</v>
+        <v>-1.147062821288467</v>
       </c>
       <c r="H38">
-        <v>-1.965377815213232</v>
+        <v>-1.663186985292608</v>
       </c>
       <c r="I38">
-        <v>0.9555424572552234</v>
+        <v>1.037203881961949</v>
       </c>
       <c r="J38">
-        <v>4.356399053164901</v>
+        <v>4.356957479533466</v>
       </c>
       <c r="K38">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.004963147980424163</v>
+        <v>0.02117965556020796</v>
       </c>
       <c r="C39">
-        <v>-109.5738932485366</v>
+        <v>2098.768809734004</v>
       </c>
       <c r="D39">
-        <v>47.33427522391171</v>
+        <v>-1660.285986275573</v>
       </c>
       <c r="E39">
-        <v>142.0785362105319</v>
+        <v>-303.6790890639967</v>
       </c>
       <c r="F39">
-        <v>1.394978548062958</v>
+        <v>1.186764589413904</v>
       </c>
       <c r="G39">
-        <v>-0.4006293315273026</v>
+        <v>-1.302741160472336</v>
       </c>
       <c r="H39">
-        <v>-0.9597389781710046</v>
+        <v>-1.269640135534642</v>
       </c>
       <c r="I39">
-        <v>-0.6103364387951782</v>
+        <v>-1.542207301921749</v>
       </c>
       <c r="J39">
-        <v>4.356455156718681</v>
+        <v>4.356968765188188</v>
       </c>
       <c r="K39">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-24.22209755386546</v>
+        <v>-25.58422125131714</v>
       </c>
       <c r="C40">
-        <v>24.18041607173252</v>
+        <v>0.008320400621138082</v>
       </c>
       <c r="D40">
-        <v>47.52847149597183</v>
+        <v>-52.81031973111222</v>
       </c>
       <c r="E40">
-        <v>0.9362643674917429</v>
+        <v>211.6749597276414</v>
       </c>
       <c r="F40">
-        <v>-0.1233662917284157</v>
+        <v>-0.4971360833311735</v>
       </c>
       <c r="G40">
-        <v>-0.3717983883156135</v>
+        <v>1.337376224083199</v>
       </c>
       <c r="H40">
-        <v>-0.2016584505255952</v>
+        <v>-1.403633795875477</v>
       </c>
       <c r="I40">
-        <v>0.6122402791943853</v>
+        <v>-1.175607118941449</v>
       </c>
       <c r="J40">
-        <v>4.356795842862148</v>
+        <v>4.357153072115251</v>
       </c>
       <c r="K40">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-18.98486733217199</v>
+        <v>0.0007394442232824791</v>
       </c>
       <c r="C41">
-        <v>-33.85466766690782</v>
+        <v>247.6695734039205</v>
       </c>
       <c r="D41">
-        <v>1.03726757683271</v>
+        <v>-282.3341747648203</v>
       </c>
       <c r="E41">
-        <v>138.1601973229797</v>
+        <v>444.0010414438415</v>
       </c>
       <c r="F41">
-        <v>-0.7626734837976157</v>
+        <v>1.681965468521714</v>
       </c>
       <c r="G41">
-        <v>-1.572314499467376</v>
+        <v>0.194701074966976</v>
       </c>
       <c r="H41">
-        <v>0.5270070123441535</v>
+        <v>0.1791866425264725</v>
       </c>
       <c r="I41">
-        <v>-0.946752568732419</v>
+        <v>-1.900237871163249</v>
       </c>
       <c r="J41">
-        <v>4.356912574259836</v>
+        <v>4.358010905188344</v>
       </c>
       <c r="K41">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.0004539975382790888</v>
+        <v>-108.0069673711141</v>
       </c>
       <c r="C42">
-        <v>16.7426712116935</v>
+        <v>0.004049607107273264</v>
       </c>
       <c r="D42">
-        <v>132.0206958560271</v>
+        <v>264.8753995914606</v>
       </c>
       <c r="E42">
-        <v>1.850482088972186</v>
+        <v>34.71904382881682</v>
       </c>
       <c r="F42">
-        <v>1.768278265826279</v>
+        <v>-0.8058359140996063</v>
       </c>
       <c r="G42">
-        <v>-1.779295267134709</v>
+        <v>1.477079368270846</v>
       </c>
       <c r="H42">
-        <v>-1.156062978853423</v>
+        <v>-1.098046225981444</v>
       </c>
       <c r="I42">
-        <v>0.3550300198485741</v>
+        <v>-1.987949236464791</v>
       </c>
       <c r="J42">
-        <v>4.357049506691227</v>
+        <v>4.358143085047244</v>
       </c>
       <c r="K42">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-42.7398868442377</v>
+        <v>784.5707034765219</v>
       </c>
       <c r="C43">
-        <v>-24.66403828000554</v>
+        <v>-1354.986363297776</v>
       </c>
       <c r="D43">
-        <v>192.956018022427</v>
+        <v>1007.086242519382</v>
       </c>
       <c r="E43">
-        <v>0.004368786601476988</v>
+        <v>0.008690813596559023</v>
       </c>
       <c r="F43">
-        <v>-1.205013995268933</v>
+        <v>-1.542186355096089</v>
       </c>
       <c r="G43">
-        <v>-0.3076176726065905</v>
+        <v>-1.701108262519899</v>
       </c>
       <c r="H43">
-        <v>-1.111327833054195</v>
+        <v>-1.969094608832974</v>
       </c>
       <c r="I43">
-        <v>1.439242734721153</v>
+        <v>1.36011494445126</v>
       </c>
       <c r="J43">
-        <v>4.357192027181563</v>
+        <v>4.358677063703308</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>30.07849602575232</v>
+        <v>-9.169638437505743</v>
       </c>
       <c r="C44">
-        <v>241.656984645515</v>
+        <v>0.5564429033841063</v>
       </c>
       <c r="D44">
-        <v>0.02148633174321372</v>
+        <v>30.56518103861884</v>
       </c>
       <c r="E44">
-        <v>0.025554596938625</v>
+        <v>-0.0002413670817984717</v>
       </c>
       <c r="F44">
-        <v>-1.181572687136596</v>
+        <v>0.1749344199556111</v>
       </c>
       <c r="G44">
-        <v>-1.684125980736982</v>
+        <v>0.7585244943060654</v>
       </c>
       <c r="H44">
-        <v>1.179726672521578</v>
+        <v>-0.268103024495552</v>
       </c>
       <c r="I44">
-        <v>0.4040830979877139</v>
+        <v>1.814949551806933</v>
       </c>
       <c r="J44">
-        <v>4.357350961991824</v>
+        <v>4.358803480244189</v>
       </c>
       <c r="K44">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-10.70824472624758</v>
+        <v>0.02098785605043123</v>
       </c>
       <c r="C45">
-        <v>189.8225431392867</v>
+        <v>-11.6110773974616</v>
       </c>
       <c r="D45">
-        <v>1.762840171032479</v>
+        <v>300.3606919957025</v>
       </c>
       <c r="E45">
-        <v>0.001993960289922174</v>
+        <v>0.0004321429242530398</v>
       </c>
       <c r="F45">
-        <v>-1.884638024168219</v>
+        <v>0.9766047726676748</v>
       </c>
       <c r="G45">
-        <v>-1.348389435201168</v>
+        <v>-0.2770035359137091</v>
       </c>
       <c r="H45">
-        <v>0.299333979773817</v>
+        <v>-1.519813229689142</v>
       </c>
       <c r="I45">
-        <v>1.549148493880628</v>
+        <v>1.799746318101629</v>
       </c>
       <c r="J45">
-        <v>4.357395120218239</v>
+        <v>4.358996685942175</v>
       </c>
       <c r="K45">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.0003398981646279103</v>
+        <v>-118.7183817921721</v>
       </c>
       <c r="C46">
-        <v>-74.69348860169602</v>
+        <v>229.0064731251565</v>
       </c>
       <c r="D46">
-        <v>-17.22381279675057</v>
+        <v>-143.3149561248404</v>
       </c>
       <c r="E46">
-        <v>174.8039037527947</v>
+        <v>47.21211887567598</v>
       </c>
       <c r="F46">
-        <v>1.877049432960657</v>
+        <v>-1.31550400271011</v>
       </c>
       <c r="G46">
-        <v>-0.0453140346247114</v>
+        <v>-0.6729584094491727</v>
       </c>
       <c r="H46">
-        <v>-1.636772563426313</v>
+        <v>-0.1731138292746091</v>
       </c>
       <c r="I46">
-        <v>-1.164786709441538</v>
+        <v>-1.430476770660355</v>
       </c>
       <c r="J46">
-        <v>4.35807317103437</v>
+        <v>4.359186356242994</v>
       </c>
       <c r="K46">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5.648226369107782</v>
+        <v>0.1161983107272387</v>
       </c>
       <c r="C47">
-        <v>-10.51549248315273</v>
+        <v>-9.797097128091513</v>
       </c>
       <c r="D47">
-        <v>0.270985731699196</v>
+        <v>-0.0002508304486430039</v>
       </c>
       <c r="E47">
-        <v>32.53403193159629</v>
+        <v>25.47342507610658</v>
       </c>
       <c r="F47">
-        <v>-1.860820402911596</v>
+        <v>1.012341711352633</v>
       </c>
       <c r="G47">
-        <v>0.1031462189130927</v>
+        <v>0.1489232007132562</v>
       </c>
       <c r="H47">
-        <v>0.8129032545249424</v>
+        <v>1.86791130627176</v>
       </c>
       <c r="I47">
-        <v>-0.54693424820845</v>
+        <v>-0.6530851540645441</v>
       </c>
       <c r="J47">
-        <v>4.359177186417559</v>
+        <v>4.359877223225308</v>
       </c>
       <c r="K47">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.007363258212102717</v>
+        <v>0.0007104174131314688</v>
       </c>
       <c r="C48">
-        <v>-17.53652058207211</v>
+        <v>206.4862192723086</v>
       </c>
       <c r="D48">
-        <v>48.67951904814284</v>
+        <v>-380.4426108022353</v>
       </c>
       <c r="E48">
-        <v>1.112000872883253</v>
+        <v>472.4026937240578</v>
       </c>
       <c r="F48">
-        <v>1.405324628647335</v>
+        <v>1.809058891289675</v>
       </c>
       <c r="G48">
-        <v>0.2505906321249669</v>
+        <v>-1.497459583746178</v>
       </c>
       <c r="H48">
-        <v>-1.948245010160296</v>
+        <v>-0.9953748834335432</v>
       </c>
       <c r="I48">
-        <v>0.7524343492394716</v>
+        <v>-1.113221135872274</v>
       </c>
       <c r="J48">
-        <v>4.359572110728276</v>
+        <v>4.360896103654278</v>
       </c>
       <c r="K48">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4.110701816222223</v>
+        <v>0.5929105242729569</v>
       </c>
       <c r="C49">
-        <v>-0.0001423769734254193</v>
+        <v>25.88311487104036</v>
       </c>
       <c r="D49">
-        <v>34.56292963270072</v>
+        <v>-15.00166761479852</v>
       </c>
       <c r="E49">
-        <v>-65.59851033108106</v>
+        <v>-0.06118492538806562</v>
       </c>
       <c r="F49">
-        <v>-0.8012527731093566</v>
+        <v>0.9287265001747729</v>
       </c>
       <c r="G49">
-        <v>1.859767900550744</v>
+        <v>-1.908090045854704</v>
       </c>
       <c r="H49">
-        <v>0.3866593712087552</v>
+        <v>0.2516610929019905</v>
       </c>
       <c r="I49">
-        <v>0.2892064556793708</v>
+        <v>1.227235864153579</v>
       </c>
       <c r="J49">
-        <v>4.360219230617808</v>
+        <v>4.361180681214339</v>
       </c>
       <c r="K49">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-7.554757645613563</v>
+        <v>-105.4105107998999</v>
       </c>
       <c r="C50">
-        <v>0.08599063346584546</v>
+        <v>-10.14737568870539</v>
       </c>
       <c r="D50">
-        <v>0.03118819036502622</v>
+        <v>0.0009090395229565825</v>
       </c>
       <c r="E50">
-        <v>35.51004046873409</v>
+        <v>582.1653126888472</v>
       </c>
       <c r="F50">
-        <v>-1.754880021632595</v>
+        <v>-1.332083968295676</v>
       </c>
       <c r="G50">
-        <v>0.8646093077440464</v>
+        <v>-0.5587454056228685</v>
       </c>
       <c r="H50">
-        <v>1.031553429288074</v>
+        <v>1.768370011573556</v>
       </c>
       <c r="I50">
-        <v>-0.5063613151534196</v>
+        <v>-1.661965564732155</v>
       </c>
       <c r="J50">
-        <v>4.360589094142641</v>
+        <v>4.361509905146871</v>
       </c>
       <c r="K50">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-15.00084757912756</v>
+        <v>-0.002559121463927598</v>
       </c>
       <c r="C51">
-        <v>17.84668481504674</v>
+        <v>0.2403723262221034</v>
       </c>
       <c r="D51">
-        <v>-0.007444860013557511</v>
+        <v>111.1549000793719</v>
       </c>
       <c r="E51">
-        <v>10.16382361239599</v>
+        <v>-137.0819670385572</v>
       </c>
       <c r="F51">
-        <v>0.5726201382098348</v>
+        <v>1.564713439279232</v>
       </c>
       <c r="G51">
-        <v>-1.20096130071511</v>
+        <v>0.9409183399519363</v>
       </c>
       <c r="H51">
-        <v>1.428719027572585</v>
+        <v>-0.02903019921161354</v>
       </c>
       <c r="I51">
-        <v>0.6527607888261326</v>
+        <v>0.01840210544833409</v>
       </c>
       <c r="J51">
-        <v>4.361954900843156</v>
+        <v>4.361513693410046</v>
       </c>
       <c r="K51">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/PhaseResults/m4_PhaseTwo.xlsx
+++ b/PhaseResults/m4_PhaseTwo.xlsx
@@ -444,34 +444,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-122.2643182618285</v>
+        <v>115.4208970132025</v>
       </c>
       <c r="C2">
-        <v>0.009225777272209388</v>
+        <v>-64.29761518985303</v>
       </c>
       <c r="D2">
-        <v>175.6868714628164</v>
+        <v>0.09392159722197915</v>
       </c>
       <c r="E2">
-        <v>-75.39319414180932</v>
+        <v>-16.92869029978866</v>
       </c>
       <c r="F2">
-        <v>-0.1086439186697188</v>
+        <v>-0.5750552418196064</v>
       </c>
       <c r="G2">
-        <v>1.176633979768706</v>
+        <v>-0.2416114312627586</v>
       </c>
       <c r="H2">
-        <v>-0.6351031829754936</v>
+        <v>0.8848201478205286</v>
       </c>
       <c r="I2">
-        <v>-1.018448415777272</v>
+        <v>-1.452699639938947</v>
       </c>
       <c r="J2">
-        <v>0.1425669078251133</v>
+        <v>4.3016308058825</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>122.2647551580655</v>
+        <v>16.72330829375327</v>
       </c>
       <c r="C3">
-        <v>-0.7481090277627817</v>
+        <v>0.001255039903419671</v>
       </c>
       <c r="D3">
-        <v>-72.88387806833964</v>
+        <v>72.96454891510869</v>
       </c>
       <c r="E3">
-        <v>1.658766240315058</v>
+        <v>35.70626925438255</v>
       </c>
       <c r="F3">
-        <v>-0.7421831883863843</v>
+        <v>0.1520775741862654</v>
       </c>
       <c r="G3">
-        <v>0.8064750652142534</v>
+        <v>1.516280775012248</v>
       </c>
       <c r="H3">
-        <v>-1.022537334574681</v>
+        <v>-0.7580177745790617</v>
       </c>
       <c r="I3">
-        <v>0.7168447080867923</v>
+        <v>-1.064609408667953</v>
       </c>
       <c r="J3">
-        <v>1.323201695305478</v>
+        <v>4.353662138014442</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98.05217560865111</v>
+        <v>0.9788833347478407</v>
       </c>
       <c r="C4">
-        <v>0.01247310048467842</v>
+        <v>-4.519319453346278</v>
       </c>
       <c r="D4">
-        <v>-13.10794790862881</v>
+        <v>29.85961318488203</v>
       </c>
       <c r="E4">
-        <v>-78.83413593596904</v>
+        <v>303.7046085993202</v>
       </c>
       <c r="F4">
-        <v>-0.5805247880294939</v>
+        <v>1.020797010131495</v>
       </c>
       <c r="G4">
-        <v>1.220271398492892</v>
+        <v>0.8386669109526603</v>
       </c>
       <c r="H4">
-        <v>-1.546547428268539</v>
+        <v>0.4352579776813519</v>
       </c>
       <c r="I4">
-        <v>-0.1153274388387686</v>
+        <v>-0.120178884916661</v>
       </c>
       <c r="J4">
-        <v>4.325630469470958</v>
+        <v>4.353674310939766</v>
       </c>
       <c r="K4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-22.34029350823144</v>
+        <v>106.9333780407855</v>
       </c>
       <c r="C5">
-        <v>5.61849253459703</v>
+        <v>0.0001566986924793499</v>
       </c>
       <c r="D5">
-        <v>-31.10791105896249</v>
+        <v>10.28054020481487</v>
       </c>
       <c r="E5">
-        <v>85.74137512786443</v>
+        <v>358.2951938256483</v>
       </c>
       <c r="F5">
-        <v>0.1111413625670954</v>
+        <v>-0.4499951627665033</v>
       </c>
       <c r="G5">
-        <v>0.3655733270794324</v>
+        <v>1.817841436073135</v>
       </c>
       <c r="H5">
-        <v>-1.395313827502261</v>
+        <v>-1.432617283397113</v>
       </c>
       <c r="I5">
-        <v>-0.7937678359951541</v>
+        <v>0.02496375726338229</v>
       </c>
       <c r="J5">
-        <v>4.353810884320795</v>
+        <v>4.353703518967109</v>
       </c>
       <c r="K5">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2543822713262949</v>
+        <v>1.209261455520615</v>
       </c>
       <c r="C6">
-        <v>103.4255275189793</v>
+        <v>0.0002078283879737271</v>
       </c>
       <c r="D6">
-        <v>-38.11901382348826</v>
+        <v>21.7084042865563</v>
       </c>
       <c r="E6">
-        <v>169.5871333552225</v>
+        <v>86.8434374182508</v>
       </c>
       <c r="F6">
-        <v>0.6243913109180612</v>
+        <v>-1.867799108530356</v>
       </c>
       <c r="G6">
-        <v>-0.4169457174131594</v>
+        <v>1.729509574478828</v>
       </c>
       <c r="H6">
-        <v>-1.931806468667927</v>
+        <v>0.1675521470519414</v>
       </c>
       <c r="I6">
-        <v>0.04232216543467793</v>
+        <v>-0.5608829558106814</v>
       </c>
       <c r="J6">
-        <v>4.353843224505368</v>
+        <v>4.353707929470538</v>
       </c>
       <c r="K6">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.2347233003076391</v>
+        <v>30.33079732983717</v>
       </c>
       <c r="C7">
-        <v>1.150887258488819</v>
+        <v>1.528676175177582</v>
       </c>
       <c r="D7">
-        <v>69.88372888479344</v>
+        <v>55.43498257129267</v>
       </c>
       <c r="E7">
-        <v>18.04277736425675</v>
+        <v>2.297543103617384</v>
       </c>
       <c r="F7">
-        <v>0.8310548737116523</v>
+        <v>-0.4083756700318626</v>
       </c>
       <c r="G7">
-        <v>0.6686596903341426</v>
+        <v>0.06835180737237678</v>
       </c>
       <c r="H7">
-        <v>-0.8490861642704297</v>
+        <v>-0.9126175567492643</v>
       </c>
       <c r="I7">
-        <v>-0.1411589974405458</v>
+        <v>0.4409847230053909</v>
       </c>
       <c r="J7">
-        <v>4.353848088611517</v>
+        <v>4.353820266191804</v>
       </c>
       <c r="K7">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18.67980625887702</v>
+        <v>-35.47885859744615</v>
       </c>
       <c r="C8">
-        <v>-39.16542556137834</v>
+        <v>0.0002340907657106247</v>
       </c>
       <c r="D8">
-        <v>4.709596491919418</v>
+        <v>183.6001918189549</v>
       </c>
       <c r="E8">
-        <v>88.52258663716773</v>
+        <v>15.96415727223498</v>
       </c>
       <c r="F8">
-        <v>-0.2968747967004861</v>
+        <v>-0.5177112267824506</v>
       </c>
       <c r="G8">
-        <v>-1.109673891164824</v>
+        <v>1.875719722508688</v>
       </c>
       <c r="H8">
-        <v>0.3537453697636104</v>
+        <v>-0.9684016678692982</v>
       </c>
       <c r="I8">
-        <v>-0.7448613241098814</v>
+        <v>0.1132546483792805</v>
       </c>
       <c r="J8">
-        <v>4.353851353439868</v>
+        <v>4.353825810145267</v>
       </c>
       <c r="K8">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.565862671926864e-05</v>
+        <v>100.6163603179</v>
       </c>
       <c r="C9">
-        <v>14.78886010219894</v>
+        <v>860.243115471596</v>
       </c>
       <c r="D9">
-        <v>3.20470805280735</v>
+        <v>-881.5568298313375</v>
       </c>
       <c r="E9">
-        <v>69.35437697506492</v>
+        <v>22.49088395454222</v>
       </c>
       <c r="F9">
-        <v>1.360027162277137</v>
+        <v>-0.2032996582676616</v>
       </c>
       <c r="G9">
-        <v>-1.87099314763774</v>
+        <v>-1.779853078558572</v>
       </c>
       <c r="H9">
-        <v>0.399267086134492</v>
+        <v>-1.867081887162395</v>
       </c>
       <c r="I9">
-        <v>-0.5756743636112773</v>
+        <v>0.2177141696572127</v>
       </c>
       <c r="J9">
-        <v>4.353855869305775</v>
+        <v>4.353852785190355</v>
       </c>
       <c r="K9">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25.57044826613475</v>
+        <v>-11.71603184431076</v>
       </c>
       <c r="C10">
-        <v>-68.35584149473007</v>
+        <v>-5.679529754022706</v>
       </c>
       <c r="D10">
-        <v>93.66747336377459</v>
+        <v>4.652995289157004</v>
       </c>
       <c r="E10">
-        <v>53.57799349346095</v>
+        <v>75.86997556485011</v>
       </c>
       <c r="F10">
-        <v>0.2018119231148199</v>
+        <v>-0.05585498203121153</v>
       </c>
       <c r="G10">
-        <v>-1.97784085856481</v>
+        <v>-1.85998094243861</v>
       </c>
       <c r="H10">
-        <v>-0.2097226885318191</v>
+        <v>0.35137408116658</v>
       </c>
       <c r="I10">
-        <v>-1.071182517038912</v>
+        <v>-0.5258107505433471</v>
       </c>
       <c r="J10">
-        <v>4.353860038281866</v>
+        <v>4.353864624088716</v>
       </c>
       <c r="K10">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1.422733953754398</v>
+        <v>2.242833893024097</v>
       </c>
       <c r="C11">
-        <v>3.815606483518931</v>
+        <v>4.590921744530472</v>
       </c>
       <c r="D11">
-        <v>36.30902118594653</v>
+        <v>69.50350709815329</v>
       </c>
       <c r="E11">
-        <v>54.76365923836033</v>
+        <v>-0.0002337489343013588</v>
       </c>
       <c r="F11">
-        <v>0.5775071228806117</v>
+        <v>-0.005662553358535494</v>
       </c>
       <c r="G11">
-        <v>0.5068218019970399</v>
+        <v>0.3728013791281621</v>
       </c>
       <c r="H11">
-        <v>-1.303565996213299</v>
+        <v>-0.4526863167629085</v>
       </c>
       <c r="I11">
-        <v>-0.4828210101950317</v>
+        <v>1.483440877429489</v>
       </c>
       <c r="J11">
-        <v>4.353869715671738</v>
+        <v>4.353957525117924</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12.84564418174819</v>
+        <v>5.379649467481933</v>
       </c>
       <c r="C12">
-        <v>42.70810455375596</v>
+        <v>-2.599789483648555</v>
       </c>
       <c r="D12">
-        <v>2.122265605413218</v>
+        <v>20.55006959486832</v>
       </c>
       <c r="E12">
-        <v>79.37042149642249</v>
+        <v>50.21933496961683</v>
       </c>
       <c r="F12">
-        <v>-0.2321505825354646</v>
+        <v>0.5961330041681703</v>
       </c>
       <c r="G12">
-        <v>-0.570103861740999</v>
+        <v>0.6765836970136485</v>
       </c>
       <c r="H12">
-        <v>0.4600967293565934</v>
+        <v>-0.3212336317668543</v>
       </c>
       <c r="I12">
-        <v>-1.639113654501418</v>
+        <v>-0.3538195067581045</v>
       </c>
       <c r="J12">
-        <v>4.353900769563737</v>
+        <v>4.354102017697073</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>75.57992736315779</v>
+        <v>420.6410450239988</v>
       </c>
       <c r="C13">
-        <v>99.50622180192804</v>
+        <v>24.06273964268297</v>
       </c>
       <c r="D13">
-        <v>-96.65793093954412</v>
+        <v>-1168.776036741343</v>
       </c>
       <c r="E13">
-        <v>24.99675385430385</v>
+        <v>825.4349313856113</v>
       </c>
       <c r="F13">
-        <v>-0.2769232882589809</v>
+        <v>-1.753351359789467</v>
       </c>
       <c r="G13">
-        <v>-0.9349176513461808</v>
+        <v>0.1666909765052131</v>
       </c>
       <c r="H13">
-        <v>-1.207110852948135</v>
+        <v>-1.247630271758671</v>
       </c>
       <c r="I13">
-        <v>0.193971939386838</v>
+        <v>-1.00977675394121</v>
       </c>
       <c r="J13">
-        <v>4.353917594197952</v>
+        <v>4.354190517655127</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>35.2654874804302</v>
+        <v>-18.14343379251174</v>
       </c>
       <c r="C14">
-        <v>169.6021192801752</v>
+        <v>49.29212575291513</v>
       </c>
       <c r="D14">
-        <v>8.477235066169213</v>
+        <v>1.855967475239631</v>
       </c>
       <c r="E14">
-        <v>-7.367999322656168</v>
+        <v>31.11628356901486</v>
       </c>
       <c r="F14">
-        <v>-0.1425357083319954</v>
+        <v>-0.6542334917483561</v>
       </c>
       <c r="G14">
-        <v>-1.457904114477685</v>
+        <v>-0.6422895521552101</v>
       </c>
       <c r="H14">
-        <v>0.6108588652807789</v>
+        <v>0.489667206518646</v>
       </c>
       <c r="I14">
-        <v>0.6174199413119084</v>
+        <v>-0.3677553154227562</v>
       </c>
       <c r="J14">
-        <v>4.353931916073556</v>
+        <v>4.354322482717333</v>
       </c>
       <c r="K14">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-40.06153393764721</v>
+        <v>22.57410547285446</v>
       </c>
       <c r="C15">
-        <v>24.01187875884207</v>
+        <v>-300.8378233052749</v>
       </c>
       <c r="D15">
-        <v>116.0257953670772</v>
+        <v>169.9389228556514</v>
       </c>
       <c r="E15">
-        <v>149.5139368066326</v>
+        <v>163.7288176948173</v>
       </c>
       <c r="F15">
-        <v>-1.976537377052907</v>
+        <v>0.1684179446450851</v>
       </c>
       <c r="G15">
-        <v>-0.6814404243133776</v>
+        <v>-1.331129815759959</v>
       </c>
       <c r="H15">
-        <v>0.09766748903214451</v>
+        <v>-0.7727872549146246</v>
       </c>
       <c r="I15">
-        <v>-0.1947027644456469</v>
+        <v>-1.343760455311617</v>
       </c>
       <c r="J15">
-        <v>4.353937912426574</v>
+        <v>4.354512215354276</v>
       </c>
       <c r="K15">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>118.8566310237852</v>
+        <v>43.60624957539494</v>
       </c>
       <c r="C16">
-        <v>384.9131034325741</v>
+        <v>1.127824448679857</v>
       </c>
       <c r="D16">
-        <v>17.40569882423881</v>
+        <v>-39.61725492922108</v>
       </c>
       <c r="E16">
-        <v>-402.9847387035821</v>
+        <v>30.33861948642318</v>
       </c>
       <c r="F16">
-        <v>-0.5307320830933719</v>
+        <v>-0.8635484945817162</v>
       </c>
       <c r="G16">
-        <v>-1.417852201440257</v>
+        <v>0.5664583882290346</v>
       </c>
       <c r="H16">
-        <v>0.2162672493667328</v>
+        <v>-1.925862810632909</v>
       </c>
       <c r="I16">
-        <v>-1.306742012696025</v>
+        <v>-0.264876774022285</v>
       </c>
       <c r="J16">
-        <v>4.353988233153366</v>
+        <v>4.354765906086154</v>
       </c>
       <c r="K16">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.3630679222453754</v>
+        <v>0.512427745349363</v>
       </c>
       <c r="C17">
-        <v>1.444344719566855</v>
+        <v>-1.363767227788882</v>
       </c>
       <c r="D17">
-        <v>47.84348870804013</v>
+        <v>59.70675209903689</v>
       </c>
       <c r="E17">
-        <v>20.08156574257011</v>
+        <v>-0.0003999063564507079</v>
       </c>
       <c r="F17">
-        <v>0.8703964381228366</v>
+        <v>0.6898044308789899</v>
       </c>
       <c r="G17">
-        <v>0.7040910487935337</v>
+        <v>-0.5004414916667799</v>
       </c>
       <c r="H17">
-        <v>-0.3947333488908169</v>
+        <v>-0.6350004731026235</v>
       </c>
       <c r="I17">
-        <v>-0.8932278747492548</v>
+        <v>1.621664813878342</v>
       </c>
       <c r="J17">
-        <v>4.354054096912488</v>
+        <v>4.355285082868471</v>
       </c>
       <c r="K17">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-72.87910775315611</v>
+        <v>6.780578827585828</v>
       </c>
       <c r="C18">
-        <v>-268.3636808995624</v>
+        <v>53.10279935400346</v>
       </c>
       <c r="D18">
-        <v>589.2800130227382</v>
+        <v>-89.19799699470447</v>
       </c>
       <c r="E18">
-        <v>238.806517101659</v>
+        <v>-5.418064916170746e-05</v>
       </c>
       <c r="F18">
-        <v>-0.7903394188018507</v>
+        <v>0.37163061194269</v>
       </c>
       <c r="G18">
-        <v>-0.04376120876535738</v>
+        <v>-0.3368040805509991</v>
       </c>
       <c r="H18">
-        <v>0.01716973390931109</v>
+        <v>0.0386712405137799</v>
       </c>
       <c r="I18">
-        <v>-0.3427511922133943</v>
+        <v>1.890841099281444</v>
       </c>
       <c r="J18">
-        <v>4.354064572751895</v>
+        <v>4.355295902663592</v>
       </c>
       <c r="K18">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-142.3711002038325</v>
+        <v>-0.01513397410389549</v>
       </c>
       <c r="C19">
-        <v>-68.74059180855021</v>
+        <v>25.15261976488516</v>
       </c>
       <c r="D19">
-        <v>205.5142082240427</v>
+        <v>44.35061839695146</v>
       </c>
       <c r="E19">
-        <v>8.51625620461332</v>
+        <v>0.2877657036915104</v>
       </c>
       <c r="F19">
-        <v>-1.016343837028351</v>
+        <v>1.18443800501441</v>
       </c>
       <c r="G19">
-        <v>-0.02292496672283217</v>
+        <v>-0.5605967116354871</v>
       </c>
       <c r="H19">
-        <v>-0.7551312358886744</v>
+        <v>-0.9456454821981288</v>
       </c>
       <c r="I19">
-        <v>0.255535537981201</v>
+        <v>0.8338599972250136</v>
       </c>
       <c r="J19">
-        <v>4.354210797271428</v>
+        <v>4.355369250924604</v>
       </c>
       <c r="K19">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>91.69643404025862</v>
+        <v>75.19108648934247</v>
       </c>
       <c r="C20">
-        <v>-0.5686553812968771</v>
+        <v>82.12907261240377</v>
       </c>
       <c r="D20">
-        <v>1.817496675291703</v>
+        <v>-157.501779986495</v>
       </c>
       <c r="E20">
-        <v>558.5564966879476</v>
+        <v>-20.29347920938822</v>
       </c>
       <c r="F20">
-        <v>-1.469611940034627</v>
+        <v>-1.223034919781359</v>
       </c>
       <c r="G20">
-        <v>0.9017877235241905</v>
+        <v>0.2318053833820861</v>
       </c>
       <c r="H20">
-        <v>0.7566475795356018</v>
+        <v>0.1546555549831647</v>
       </c>
       <c r="I20">
-        <v>-0.01278018778117751</v>
+        <v>-1.813582634222517</v>
       </c>
       <c r="J20">
-        <v>4.354218165535372</v>
+        <v>4.35537925831774</v>
       </c>
       <c r="K20">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-20.60755986554534</v>
+        <v>-144.0501276637553</v>
       </c>
       <c r="C21">
-        <v>1.089226581658092</v>
+        <v>144.1985215536318</v>
       </c>
       <c r="D21">
-        <v>75.00302793421463</v>
+        <v>0.02834899075494345</v>
       </c>
       <c r="E21">
-        <v>-0.406779944259445</v>
+        <v>-184.1771139912038</v>
       </c>
       <c r="F21">
-        <v>-0.352054911594391</v>
+        <v>0.006392393086723125</v>
       </c>
       <c r="G21">
-        <v>0.7815408847023604</v>
+        <v>-0.3762215925428569</v>
       </c>
       <c r="H21">
-        <v>-0.4500861918092851</v>
+        <v>1.032905282683497</v>
       </c>
       <c r="I21">
-        <v>0.8988809271980212</v>
+        <v>-0.1155008040902508</v>
       </c>
       <c r="J21">
-        <v>4.3552525155391</v>
+        <v>4.355421483559979</v>
       </c>
       <c r="K21">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6.489415692342842e-06</v>
+        <v>182.6048700990076</v>
       </c>
       <c r="C22">
-        <v>0.7035650081437954</v>
+        <v>-214.5918842984699</v>
       </c>
       <c r="D22">
-        <v>1.195271404766907</v>
+        <v>0.05227083228840537</v>
       </c>
       <c r="E22">
-        <v>62.69770586818203</v>
+        <v>48.06839951286155</v>
       </c>
       <c r="F22">
-        <v>1.653471968311442</v>
+        <v>-0.382876534643398</v>
       </c>
       <c r="G22">
-        <v>-1.727242461161577</v>
+        <v>-0.2128477500075963</v>
       </c>
       <c r="H22">
-        <v>0.5345901828952315</v>
+        <v>0.9543968675431658</v>
       </c>
       <c r="I22">
-        <v>-0.6299647063015685</v>
+        <v>-0.2398966450387012</v>
       </c>
       <c r="J22">
-        <v>4.355350724842692</v>
+        <v>4.355433165429133</v>
       </c>
       <c r="K22">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-1.836450284879223</v>
+        <v>-48.60009858307789</v>
       </c>
       <c r="C23">
-        <v>62.8767700094226</v>
+        <v>100.7528450272593</v>
       </c>
       <c r="D23">
-        <v>0.1799469150252427</v>
+        <v>3.078983553176508</v>
       </c>
       <c r="E23">
-        <v>-0.0001415292567473507</v>
+        <v>-0.0001434597757417982</v>
       </c>
       <c r="F23">
-        <v>-0.6433970046019519</v>
+        <v>0.09617584565183712</v>
       </c>
       <c r="G23">
-        <v>-0.7616181374878477</v>
+        <v>-1.297390320175113</v>
       </c>
       <c r="H23">
-        <v>0.8604019339048006</v>
+        <v>0.4772201815601758</v>
       </c>
       <c r="I23">
-        <v>1.848922505396178</v>
+        <v>1.522118501330372</v>
       </c>
       <c r="J23">
-        <v>4.355362752407631</v>
+        <v>4.355579008451969</v>
       </c>
       <c r="K23">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.3725194491593553</v>
+        <v>8.153141052053776</v>
       </c>
       <c r="C24">
-        <v>8.517556335889296</v>
+        <v>75.97522598138652</v>
       </c>
       <c r="D24">
-        <v>58.72967226374491</v>
+        <v>0.001186883175047206</v>
       </c>
       <c r="E24">
-        <v>-0.0290272403757472</v>
+        <v>0.4235767403985576</v>
       </c>
       <c r="F24">
-        <v>0.7927274845000563</v>
+        <v>-0.6925446724403637</v>
       </c>
       <c r="G24">
-        <v>-1.324838884042288</v>
+        <v>-0.9513589618600715</v>
       </c>
       <c r="H24">
-        <v>-0.7077263909663822</v>
+        <v>1.361170704013164</v>
       </c>
       <c r="I24">
-        <v>1.073934080018848</v>
+        <v>0.6545411439990407</v>
       </c>
       <c r="J24">
-        <v>4.355367582331654</v>
+        <v>4.35567484706745</v>
       </c>
       <c r="K24">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-2.22303467957997</v>
+        <v>-33.63941636601875</v>
       </c>
       <c r="C25">
-        <v>0.002041387304143306</v>
+        <v>114.3843436467719</v>
       </c>
       <c r="D25">
-        <v>2.123366612837303</v>
+        <v>60.01685038295531</v>
       </c>
       <c r="E25">
-        <v>72.80241291235619</v>
+        <v>0.3153890297691659</v>
       </c>
       <c r="F25">
-        <v>-0.8754408538818552</v>
+        <v>-0.311668971715731</v>
       </c>
       <c r="G25">
-        <v>1.360473970173114</v>
+        <v>-1.554526402172342</v>
       </c>
       <c r="H25">
-        <v>0.4111161267366548</v>
+        <v>-0.3635836001157253</v>
       </c>
       <c r="I25">
-        <v>-0.7137636663214746</v>
+        <v>0.744406842755144</v>
       </c>
       <c r="J25">
-        <v>4.355515010836472</v>
+        <v>4.355789606936389</v>
       </c>
       <c r="K25">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-14.04075639617688</v>
+        <v>11.66353981365848</v>
       </c>
       <c r="C26">
-        <v>-4.785324361805287e-05</v>
+        <v>28.70740981391438</v>
       </c>
       <c r="D26">
-        <v>8.052089433750204</v>
+        <v>89.15197016690588</v>
       </c>
       <c r="E26">
-        <v>58.41453540999616</v>
+        <v>0.23689477179159</v>
       </c>
       <c r="F26">
-        <v>0.3890331918063996</v>
+        <v>-1.499803260088223</v>
       </c>
       <c r="G26">
-        <v>1.980658151673694</v>
+        <v>-0.5310958735750644</v>
       </c>
       <c r="H26">
-        <v>0.4982875334585</v>
+        <v>-1.532463014989162</v>
       </c>
       <c r="I26">
-        <v>-0.993170253252289</v>
+        <v>0.7865826475061675</v>
       </c>
       <c r="J26">
-        <v>4.355557487915684</v>
+        <v>4.355818903912269</v>
       </c>
       <c r="K26">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-2.402943353734941</v>
+        <v>0.1958651225127589</v>
       </c>
       <c r="C27">
-        <v>44.53439659643279</v>
+        <v>14.7882119539296</v>
       </c>
       <c r="D27">
-        <v>-0.01328063671396947</v>
+        <v>89.37538336503974</v>
       </c>
       <c r="E27">
-        <v>2.399261227876057</v>
+        <v>0.0011687333836617</v>
       </c>
       <c r="F27">
-        <v>0.7065799905432026</v>
+        <v>0.7733439161175157</v>
       </c>
       <c r="G27">
-        <v>-0.4627780455198596</v>
+        <v>-1.036692833881883</v>
       </c>
       <c r="H27">
-        <v>1.301177413002297</v>
+        <v>-1.083829106306722</v>
       </c>
       <c r="I27">
-        <v>0.7558072736687058</v>
+        <v>1.359307881698609</v>
       </c>
       <c r="J27">
-        <v>4.355632373509996</v>
+        <v>4.35592607910851</v>
       </c>
       <c r="K27">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,34 +1354,34 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>11.40322078796756</v>
+        <v>-0.4898546968864605</v>
       </c>
       <c r="C28">
-        <v>85.69707983056199</v>
+        <v>0.5366783429611748</v>
       </c>
       <c r="D28">
-        <v>0.01830540432368209</v>
+        <v>27.44244601489232</v>
       </c>
       <c r="E28">
-        <v>1.320631551916791</v>
+        <v>34.46105212765872</v>
       </c>
       <c r="F28">
-        <v>-0.6163799349004144</v>
+        <v>1.333666745635469</v>
       </c>
       <c r="G28">
-        <v>-1.052999246467663</v>
+        <v>1.320924674278323</v>
       </c>
       <c r="H28">
-        <v>1.125932470884845</v>
+        <v>-0.5593342583418635</v>
       </c>
       <c r="I28">
-        <v>0.3777713158407852</v>
+        <v>-1.131839788912077</v>
       </c>
       <c r="J28">
-        <v>4.3558803551823</v>
+        <v>4.355926351200779</v>
       </c>
       <c r="K28">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1389,34 +1389,34 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7.216240628207058</v>
+        <v>2.900333638529503</v>
       </c>
       <c r="C29">
-        <v>29.34152651597551</v>
+        <v>0.6864405558986439</v>
       </c>
       <c r="D29">
-        <v>-66.82685576126937</v>
+        <v>98.71710330231556</v>
       </c>
       <c r="E29">
-        <v>-0.0004250976334309074</v>
+        <v>0.03088446631354389</v>
       </c>
       <c r="F29">
-        <v>0.4392964514170909</v>
+        <v>0.2172817408605834</v>
       </c>
       <c r="G29">
-        <v>-1.223573869086662</v>
+        <v>-0.6107797217899609</v>
       </c>
       <c r="H29">
-        <v>0.1341108175978332</v>
+        <v>-1.016635596254466</v>
       </c>
       <c r="I29">
-        <v>1.672508139521793</v>
+        <v>1.073849365731916</v>
       </c>
       <c r="J29">
-        <v>4.355891179533458</v>
+        <v>4.355968472557652</v>
       </c>
       <c r="K29">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-8.897878042279366</v>
+        <v>-2.549007354582329e-06</v>
       </c>
       <c r="C30">
-        <v>-47.24110516751909</v>
+        <v>-3.802894664596004</v>
       </c>
       <c r="D30">
-        <v>106.1576875399289</v>
+        <v>116.4381018009087</v>
       </c>
       <c r="E30">
-        <v>0.01427658454268679</v>
+        <v>0.1333484013675877</v>
       </c>
       <c r="F30">
-        <v>-0.9520170797448562</v>
+        <v>1.994440996627985</v>
       </c>
       <c r="G30">
-        <v>-0.1321553845635137</v>
+        <v>-1.664327886038181</v>
       </c>
       <c r="H30">
-        <v>-0.7709853727808236</v>
+        <v>-1.135057643155719</v>
       </c>
       <c r="I30">
-        <v>1.198129965715523</v>
+        <v>0.8622665048282925</v>
       </c>
       <c r="J30">
-        <v>4.355920969272503</v>
+        <v>4.35599314449363</v>
       </c>
       <c r="K30">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8.958884644033458e-05</v>
+        <v>-0.0003032042191540002</v>
       </c>
       <c r="C31">
-        <v>7.665168289209479</v>
+        <v>1.092432874214448</v>
       </c>
       <c r="D31">
-        <v>94.44122514675784</v>
+        <v>63.88745868808736</v>
       </c>
       <c r="E31">
-        <v>-18.8638410719141</v>
+        <v>-1.905311258867098</v>
       </c>
       <c r="F31">
-        <v>1.988748131496957</v>
+        <v>1.73474330566573</v>
       </c>
       <c r="G31">
-        <v>0.228203165057081</v>
+        <v>0.6273983207894513</v>
       </c>
       <c r="H31">
-        <v>-0.667910148196404</v>
+        <v>-0.2012760275249179</v>
       </c>
       <c r="I31">
-        <v>-0.2084378208172617</v>
+        <v>-0.03952197329722917</v>
       </c>
       <c r="J31">
-        <v>4.356052244956992</v>
+        <v>4.356039647576161</v>
       </c>
       <c r="K31">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-2.669793385612086</v>
+        <v>0.2594728645588221</v>
       </c>
       <c r="C32">
-        <v>-162.2385738262297</v>
+        <v>19.37084597782398</v>
       </c>
       <c r="D32">
-        <v>0.3479024969882327</v>
+        <v>107.4422221819701</v>
       </c>
       <c r="E32">
-        <v>249.5531344233583</v>
+        <v>0.01129398403345592</v>
       </c>
       <c r="F32">
-        <v>0.3064371596548328</v>
+        <v>0.6081645861737202</v>
       </c>
       <c r="G32">
-        <v>-1.545313327719708</v>
+        <v>-1.269216954035151</v>
       </c>
       <c r="H32">
-        <v>0.7718458235970154</v>
+        <v>-1.175059426298736</v>
       </c>
       <c r="I32">
-        <v>-1.358943865009898</v>
+        <v>1.20281847684231</v>
       </c>
       <c r="J32">
-        <v>4.356076159423749</v>
+        <v>4.356260113476965</v>
       </c>
       <c r="K32">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10.05510245173335</v>
+        <v>0.0001858816499949289</v>
       </c>
       <c r="C33">
-        <v>0.7240759438570701</v>
+        <v>0.1900328771182973</v>
       </c>
       <c r="D33">
-        <v>-5.147311852458037</v>
+        <v>-4.90733453412725</v>
       </c>
       <c r="E33">
-        <v>54.06564212861291</v>
+        <v>138.2095398708787</v>
       </c>
       <c r="F33">
-        <v>-1.599454452774869</v>
+        <v>1.76649598184636</v>
       </c>
       <c r="G33">
-        <v>0.6383923301483945</v>
+        <v>0.7609260161601168</v>
       </c>
       <c r="H33">
-        <v>-0.5119627928296961</v>
+        <v>-0.7008425617519907</v>
       </c>
       <c r="I33">
-        <v>-0.4323311508306347</v>
+        <v>-1.180361808003024</v>
       </c>
       <c r="J33">
-        <v>4.356227649236422</v>
+        <v>4.356445642734474</v>
       </c>
       <c r="K33">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>114.5859383749533</v>
+        <v>506.4263738138478</v>
       </c>
       <c r="C34">
-        <v>47.2249157230729</v>
+        <v>0.009856432923102929</v>
       </c>
       <c r="D34">
-        <v>0.03665650618810942</v>
+        <v>-50.8067572282711</v>
       </c>
       <c r="E34">
-        <v>0.0270544984408433</v>
+        <v>-374.4794569010843</v>
       </c>
       <c r="F34">
-        <v>-1.259789261149566</v>
+        <v>-1.098514328177424</v>
       </c>
       <c r="G34">
-        <v>-1.57571239099017</v>
+        <v>1.295039321245649</v>
       </c>
       <c r="H34">
-        <v>1.046471681432618</v>
+        <v>-0.5065288863428175</v>
       </c>
       <c r="I34">
-        <v>0.8533136357541333</v>
+        <v>-1.229747980940137</v>
       </c>
       <c r="J34">
-        <v>4.356462523449128</v>
+        <v>4.356619007221923</v>
       </c>
       <c r="K34">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.001621358076817679</v>
+        <v>-345.4165317079465</v>
       </c>
       <c r="C35">
-        <v>0.06338895149860865</v>
+        <v>469.7622077746478</v>
       </c>
       <c r="D35">
-        <v>38.49933318938733</v>
+        <v>989.4756979743495</v>
       </c>
       <c r="E35">
-        <v>137.5100696915869</v>
+        <v>0.02139074020954058</v>
       </c>
       <c r="F35">
-        <v>1.239201702530107</v>
+        <v>-0.5253546275089347</v>
       </c>
       <c r="G35">
-        <v>0.9686142669678737</v>
+        <v>-0.05040319736691079</v>
       </c>
       <c r="H35">
-        <v>-1.079721648877715</v>
+        <v>-1.373119180793275</v>
       </c>
       <c r="I35">
-        <v>-1.487512478478686</v>
+        <v>1.289753037510932</v>
       </c>
       <c r="J35">
-        <v>4.356518429736566</v>
+        <v>4.356701821078445</v>
       </c>
       <c r="K35">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3.541199703054079</v>
+        <v>100.1306315513978</v>
       </c>
       <c r="C36">
-        <v>-0.3034532872090256</v>
+        <v>-80.88392131762961</v>
       </c>
       <c r="D36">
-        <v>0.07824309115314122</v>
+        <v>0.02853311457061318</v>
       </c>
       <c r="E36">
-        <v>186.6414570062144</v>
+        <v>158.9412316690822</v>
       </c>
       <c r="F36">
-        <v>-1.162126038694441</v>
+        <v>-0.8325849935419436</v>
       </c>
       <c r="G36">
-        <v>0.4742440092732121</v>
+        <v>-0.8052835912272154</v>
       </c>
       <c r="H36">
-        <v>0.9837777542705863</v>
+        <v>1.136229627144154</v>
       </c>
       <c r="I36">
-        <v>-1.451611536413955</v>
+        <v>-1.507584389956439</v>
       </c>
       <c r="J36">
-        <v>4.356699888965444</v>
+        <v>4.356886900165813</v>
       </c>
       <c r="K36">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.0106634855266898</v>
+        <v>17.81046723130063</v>
       </c>
       <c r="C37">
-        <v>134.8927861197464</v>
+        <v>-0.01917150423060219</v>
       </c>
       <c r="D37">
-        <v>-0.004662027678440832</v>
+        <v>-24.38193866521801</v>
       </c>
       <c r="E37">
-        <v>19.04816445373724</v>
+        <v>-38.50455163035343</v>
       </c>
       <c r="F37">
-        <v>1.62904330325373</v>
+        <v>0.4366778511099074</v>
       </c>
       <c r="G37">
-        <v>-1.382368174785678</v>
+        <v>1.211255683031744</v>
       </c>
       <c r="H37">
-        <v>1.746721440724365</v>
+        <v>0.305603974471917</v>
       </c>
       <c r="I37">
-        <v>-1.374326230180654</v>
+        <v>0.1792978033379309</v>
       </c>
       <c r="J37">
-        <v>4.356747146803849</v>
+        <v>4.356916563753146</v>
       </c>
       <c r="K37">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.1665059993650514</v>
+        <v>-61.90267839852929</v>
       </c>
       <c r="C38">
-        <v>34.35310617241286</v>
+        <v>211.7266493233561</v>
       </c>
       <c r="D38">
-        <v>207.4968847497013</v>
+        <v>0.007227806658223592</v>
       </c>
       <c r="E38">
-        <v>0.05506909606657483</v>
+        <v>-26.45757477550662</v>
       </c>
       <c r="F38">
-        <v>0.5117016405887211</v>
+        <v>-1.024160177256037</v>
       </c>
       <c r="G38">
-        <v>-1.147062821288467</v>
+        <v>-1.151965387134278</v>
       </c>
       <c r="H38">
-        <v>-1.663186985292608</v>
+        <v>1.34842833249042</v>
       </c>
       <c r="I38">
-        <v>1.037203881961949</v>
+        <v>-0.06646821634169164</v>
       </c>
       <c r="J38">
-        <v>4.356957479533466</v>
+        <v>4.357004287072712</v>
       </c>
       <c r="K38">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.02117965556020796</v>
+        <v>-18.48700958294695</v>
       </c>
       <c r="C39">
-        <v>2098.768809734004</v>
+        <v>6.386470328827051</v>
       </c>
       <c r="D39">
-        <v>-1660.285986275573</v>
+        <v>32.8735714739678</v>
       </c>
       <c r="E39">
-        <v>-303.6790890639967</v>
+        <v>-0.001004113330546308</v>
       </c>
       <c r="F39">
-        <v>1.186764589413904</v>
+        <v>0.2928215423457248</v>
       </c>
       <c r="G39">
-        <v>-1.302741160472336</v>
+        <v>0.4989336854617488</v>
       </c>
       <c r="H39">
-        <v>-1.269640135534642</v>
+        <v>-0.1825262860459715</v>
       </c>
       <c r="I39">
-        <v>-1.542207301921749</v>
+        <v>1.588727254757353</v>
       </c>
       <c r="J39">
-        <v>4.356968765188188</v>
+        <v>4.357524755413094</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-25.58422125131714</v>
+        <v>0.002596731665687791</v>
       </c>
       <c r="C40">
-        <v>0.008320400621138082</v>
+        <v>1.512801581179833</v>
       </c>
       <c r="D40">
-        <v>-52.81031973111222</v>
+        <v>-4.830455160158809</v>
       </c>
       <c r="E40">
-        <v>211.6749597276414</v>
+        <v>267.7940635940902</v>
       </c>
       <c r="F40">
-        <v>-0.4971360833311735</v>
+        <v>1.528271554662453</v>
       </c>
       <c r="G40">
-        <v>1.337376224083199</v>
+        <v>0.2638370903528813</v>
       </c>
       <c r="H40">
-        <v>-1.403633795875477</v>
+        <v>-1.498591729980043</v>
       </c>
       <c r="I40">
-        <v>-1.175607118941449</v>
+        <v>-1.535264183887616</v>
       </c>
       <c r="J40">
-        <v>4.357153072115251</v>
+        <v>4.358140405251231</v>
       </c>
       <c r="K40">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0007394442232824791</v>
+        <v>-1.576107858030412</v>
       </c>
       <c r="C41">
-        <v>247.6695734039205</v>
+        <v>-33.18987203578325</v>
       </c>
       <c r="D41">
-        <v>-282.3341747648203</v>
+        <v>0.004431668350980912</v>
       </c>
       <c r="E41">
-        <v>444.0010414438415</v>
+        <v>246.6876535421965</v>
       </c>
       <c r="F41">
-        <v>1.681965468521714</v>
+        <v>0.2759859456642859</v>
       </c>
       <c r="G41">
-        <v>0.194701074966976</v>
+        <v>-0.1017813545245188</v>
       </c>
       <c r="H41">
-        <v>0.1791866425264725</v>
+        <v>1.462886177082282</v>
       </c>
       <c r="I41">
-        <v>-1.900237871163249</v>
+        <v>-1.43605833386972</v>
       </c>
       <c r="J41">
-        <v>4.358010905188344</v>
+        <v>4.358416101003812</v>
       </c>
       <c r="K41">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-108.0069673711141</v>
+        <v>-50.98716180035626</v>
       </c>
       <c r="C42">
-        <v>0.004049607107273264</v>
+        <v>-38.80779266400238</v>
       </c>
       <c r="D42">
-        <v>264.8753995914606</v>
+        <v>0.002864206588481705</v>
       </c>
       <c r="E42">
-        <v>34.71904382881682</v>
+        <v>307.127286184122</v>
       </c>
       <c r="F42">
-        <v>-0.8058359140996063</v>
+        <v>-1.064514260059597</v>
       </c>
       <c r="G42">
-        <v>1.477079368270846</v>
+        <v>-0.7268342057941921</v>
       </c>
       <c r="H42">
-        <v>-1.098046225981444</v>
+        <v>1.542718755495537</v>
       </c>
       <c r="I42">
-        <v>-1.987949236464791</v>
+        <v>-1.273474532871563</v>
       </c>
       <c r="J42">
-        <v>4.358143085047244</v>
+        <v>4.358739146266929</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>784.5707034765219</v>
+        <v>-7.024338856346397</v>
       </c>
       <c r="C43">
-        <v>-1354.986363297776</v>
+        <v>0.02718557883080579</v>
       </c>
       <c r="D43">
-        <v>1007.086242519382</v>
+        <v>-8.677111733433188</v>
       </c>
       <c r="E43">
-        <v>0.008690813596559023</v>
+        <v>50.78914495596675</v>
       </c>
       <c r="F43">
-        <v>-1.542186355096089</v>
+        <v>-0.09521347082308185</v>
       </c>
       <c r="G43">
-        <v>-1.701108262519899</v>
+        <v>1.172319962743366</v>
       </c>
       <c r="H43">
-        <v>-1.969094608832974</v>
+        <v>-1.77556098664844</v>
       </c>
       <c r="I43">
-        <v>1.36011494445126</v>
+        <v>-0.7447662596375888</v>
       </c>
       <c r="J43">
-        <v>4.358677063703308</v>
+        <v>4.359818815260152</v>
       </c>
       <c r="K43">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-9.169638437505743</v>
+        <v>0.4441086277747618</v>
       </c>
       <c r="C44">
-        <v>0.5564429033841063</v>
+        <v>20.90049969905893</v>
       </c>
       <c r="D44">
-        <v>30.56518103861884</v>
+        <v>-9.629191531036284e-05</v>
       </c>
       <c r="E44">
-        <v>-0.0002413670817984717</v>
+        <v>-28.57458258487053</v>
       </c>
       <c r="F44">
-        <v>0.1749344199556111</v>
+        <v>0.8067218086257744</v>
       </c>
       <c r="G44">
-        <v>0.7585244943060654</v>
+        <v>-1.168598087254075</v>
       </c>
       <c r="H44">
-        <v>-0.268103024495552</v>
+        <v>1.964182367491901</v>
       </c>
       <c r="I44">
-        <v>1.814949551806933</v>
+        <v>0.1301360854242137</v>
       </c>
       <c r="J44">
-        <v>4.358803480244189</v>
+        <v>4.360457348839439</v>
       </c>
       <c r="K44">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.02098785605043123</v>
+        <v>8.182979345997712</v>
       </c>
       <c r="C45">
-        <v>-11.6110773974616</v>
+        <v>-8.802469866389529</v>
       </c>
       <c r="D45">
-        <v>300.3606919957025</v>
+        <v>-0.005612236631689914</v>
       </c>
       <c r="E45">
-        <v>0.0004321429242530398</v>
+        <v>-14.30504770345821</v>
       </c>
       <c r="F45">
-        <v>0.9766047726676748</v>
+        <v>0.5532002919969345</v>
       </c>
       <c r="G45">
-        <v>-0.2770035359137091</v>
+        <v>0.3284807664642972</v>
       </c>
       <c r="H45">
-        <v>-1.519813229689142</v>
+        <v>1.414843989747129</v>
       </c>
       <c r="I45">
-        <v>1.799746318101629</v>
+        <v>0.388185692543487</v>
       </c>
       <c r="J45">
-        <v>4.358996685942175</v>
+        <v>4.360729827905221</v>
       </c>
       <c r="K45">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-118.7183817921721</v>
+        <v>30.86771188922084</v>
       </c>
       <c r="C46">
-        <v>229.0064731251565</v>
+        <v>-0.008390472187600671</v>
       </c>
       <c r="D46">
-        <v>-143.3149561248404</v>
+        <v>0.07096256953926439</v>
       </c>
       <c r="E46">
-        <v>47.21211887567598</v>
+        <v>-2.912415638251855</v>
       </c>
       <c r="F46">
-        <v>-1.31550400271011</v>
+        <v>-0.8857262840882947</v>
       </c>
       <c r="G46">
-        <v>-0.6729584094491727</v>
+        <v>1.531930998436866</v>
       </c>
       <c r="H46">
-        <v>-0.1731138292746091</v>
+        <v>1.236567311764547</v>
       </c>
       <c r="I46">
-        <v>-1.430476770660355</v>
+        <v>0.3317582446519753</v>
       </c>
       <c r="J46">
-        <v>4.359186356242994</v>
+        <v>4.360995439844002</v>
       </c>
       <c r="K46">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.1161983107272387</v>
+        <v>4.796621800648995</v>
       </c>
       <c r="C47">
-        <v>-9.797097128091513</v>
+        <v>15.98786583228333</v>
       </c>
       <c r="D47">
-        <v>-0.0002508304486430039</v>
+        <v>-0.5371250005325146</v>
       </c>
       <c r="E47">
-        <v>25.47342507610658</v>
+        <v>-20.47722760296741</v>
       </c>
       <c r="F47">
-        <v>1.012341711352633</v>
+        <v>0.7321416539001913</v>
       </c>
       <c r="G47">
-        <v>0.1489232007132562</v>
+        <v>0.1433326101388324</v>
       </c>
       <c r="H47">
-        <v>1.86791130627176</v>
+        <v>0.9815306764302143</v>
       </c>
       <c r="I47">
-        <v>-0.6530851540645441</v>
+        <v>0.4011999653954286</v>
       </c>
       <c r="J47">
-        <v>4.359877223225308</v>
+        <v>4.361123199653278</v>
       </c>
       <c r="K47">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.0007104174131314688</v>
+        <v>2.717744089352437</v>
       </c>
       <c r="C48">
-        <v>206.4862192723086</v>
+        <v>-399.3013360212702</v>
       </c>
       <c r="D48">
-        <v>-380.4426108022353</v>
+        <v>985.2660896650424</v>
       </c>
       <c r="E48">
-        <v>472.4026937240578</v>
+        <v>0.001784174911776464</v>
       </c>
       <c r="F48">
-        <v>1.809058891289675</v>
+        <v>-0.2704909707994632</v>
       </c>
       <c r="G48">
-        <v>-1.497459583746178</v>
+        <v>-1.397716855793482</v>
       </c>
       <c r="H48">
-        <v>-0.9953748834335432</v>
+        <v>-1.664978285396483</v>
       </c>
       <c r="I48">
-        <v>-1.113221135872274</v>
+        <v>1.6521198383208</v>
       </c>
       <c r="J48">
-        <v>4.360896103654278</v>
+        <v>4.361730503871188</v>
       </c>
       <c r="K48">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.5929105242729569</v>
+        <v>0.8084068117254638</v>
       </c>
       <c r="C49">
-        <v>25.88311487104036</v>
+        <v>-0.2015872882505361</v>
       </c>
       <c r="D49">
-        <v>-15.00166761479852</v>
+        <v>28.29743504061603</v>
       </c>
       <c r="E49">
-        <v>-0.06118492538806562</v>
+        <v>-35.79771025009695</v>
       </c>
       <c r="F49">
-        <v>0.9287265001747729</v>
+        <v>0.9704950856333956</v>
       </c>
       <c r="G49">
-        <v>-1.908090045854704</v>
+        <v>1.150632003094168</v>
       </c>
       <c r="H49">
-        <v>0.2516610929019905</v>
+        <v>0.2233678273349824</v>
       </c>
       <c r="I49">
-        <v>1.227235864153579</v>
+        <v>0.2693856891042143</v>
       </c>
       <c r="J49">
-        <v>4.361180681214339</v>
+        <v>4.364024229225706</v>
       </c>
       <c r="K49">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-105.4105107998999</v>
+        <v>-127.0011073788369</v>
       </c>
       <c r="C50">
-        <v>-10.14737568870539</v>
+        <v>11.17818685638845</v>
       </c>
       <c r="D50">
-        <v>0.0009090395229565825</v>
+        <v>423.761425942287</v>
       </c>
       <c r="E50">
-        <v>582.1653126888472</v>
+        <v>-310.5293705111765</v>
       </c>
       <c r="F50">
-        <v>-1.332083968295676</v>
+        <v>-0.1344803230207725</v>
       </c>
       <c r="G50">
-        <v>-0.5587454056228685</v>
+        <v>-1.825477495001471</v>
       </c>
       <c r="H50">
-        <v>1.768370011573556</v>
+        <v>-0.8572625578802997</v>
       </c>
       <c r="I50">
-        <v>-1.661965564732155</v>
+        <v>-1.088608734371919</v>
       </c>
       <c r="J50">
-        <v>4.361509905146871</v>
+        <v>4.364813730076051</v>
       </c>
       <c r="K50">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.002559121463927598</v>
+        <v>2.580497428422541</v>
       </c>
       <c r="C51">
-        <v>0.2403723262221034</v>
+        <v>0.5381329528045249</v>
       </c>
       <c r="D51">
-        <v>111.1549000793719</v>
+        <v>-7.112628116316194</v>
       </c>
       <c r="E51">
-        <v>-137.0819670385572</v>
+        <v>-0.01105262809547651</v>
       </c>
       <c r="F51">
-        <v>1.564713439279232</v>
+        <v>-1.923068134011296</v>
       </c>
       <c r="G51">
-        <v>0.9409183399519363</v>
+        <v>0.92059059959437</v>
       </c>
       <c r="H51">
-        <v>-0.02903019921161354</v>
+        <v>0.3861405907384676</v>
       </c>
       <c r="I51">
-        <v>0.01840210544833409</v>
+        <v>1.430393736012458</v>
       </c>
       <c r="J51">
-        <v>4.361513693410046</v>
+        <v>4.367359981550271</v>
       </c>
       <c r="K51">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
